--- a/Y2 S1 DIG-5127 Database and Web Application Development/Assignment D2 - Planning and Design Documentation/DIG 5127 Event-Planner-Site-Group-Gannt_Chart.xlsx
+++ b/Y2 S1 DIG-5127 Database and Web Application Development/Assignment D2 - Planning and Design Documentation/DIG 5127 Event-Planner-Site-Group-Gannt_Chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28409"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <xr:revisionPtr revIDLastSave="288" documentId="11_241AC3A4387F5BA620FDEEB720463F290DD88FBB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AF17000-C10D-4A7E-9316-F09207F69D1C}"/>
   <bookViews>
@@ -236,10 +236,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="d"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="d\.m\.yy;@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="d"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="d\.m\.yy;@"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -689,7 +689,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -746,10 +746,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -791,13 +791,13 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -845,7 +845,7 @@
     <xf numFmtId="37" fontId="0" fillId="10" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -858,7 +858,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -898,7 +898,7 @@
     <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
@@ -906,6 +906,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="10" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -939,9 +942,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="10" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1956,11 +1956,11 @@
     <row r="2" spans="1:13" ht="50.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="64"/>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
       <c r="F2" s="64"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1988,11 +1988,11 @@
     <row r="4" spans="1:13" s="8" customFormat="1" ht="67.150000000000006" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="59"/>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="59"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -2005,11 +2005,11 @@
     <row r="5" spans="1:13" s="8" customFormat="1" ht="67.150000000000006" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="59"/>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="59"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2111,8 +2111,8 @@
   </sheetPr>
   <dimension ref="A1:BP42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1"/>
@@ -2132,27 +2132,27 @@
     <row r="1" spans="1:68" ht="25.15" customHeight="1"/>
     <row r="2" spans="1:68" ht="49.9" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
       <c r="U2" s="20"/>
       <c r="V2" s="20"/>
       <c r="W2" s="20"/>
@@ -2281,40 +2281,40 @@
         <v>6</v>
       </c>
       <c r="H4" s="26"/>
-      <c r="I4" s="84" t="s">
+      <c r="I4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
       <c r="M4" s="29"/>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
       <c r="R4" s="29"/>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
       <c r="W4" s="29"/>
-      <c r="X4" s="78" t="s">
+      <c r="X4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
       <c r="AB4" s="29"/>
-      <c r="AC4" s="79" t="s">
+      <c r="AC4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" s="79"/>
-      <c r="AE4" s="79"/>
-      <c r="AF4" s="79"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
       <c r="AG4" s="29"/>
       <c r="AH4" s="29"/>
       <c r="AI4" s="29"/>
@@ -2425,7 +2425,7 @@
       <c r="B6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="87" t="str" cm="1">
+      <c r="C6" s="76" t="str" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones435[Start])=0,DATEVALUE("13/11/2024"),B11(Milestones435[Start])),"13/11/2024")</f>
         <v>13/11/2024</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="H6" s="26"/>
       <c r="I6" s="55" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>December</v>
+        <v>November</v>
       </c>
       <c r="J6" s="55"/>
       <c r="K6" s="55"/>
@@ -2466,7 +2466,7 @@
       <c r="AC6" s="55"/>
       <c r="AD6" s="55" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"mmmm")=W6,TEXT(AD7,"mmmm")=P6,TEXT(AD7,"mmmm")=I6),"",TEXT(AD7,"mmmm"))</f>
-        <v>January</v>
+        <v>December</v>
       </c>
       <c r="AE6" s="55"/>
       <c r="AF6" s="55"/>
@@ -2506,7 +2506,7 @@
       <c r="BE6" s="53"/>
       <c r="BF6" s="53" t="str">
         <f ca="1">IF(OR(TEXT(BF7,"mmmm")=AY6,TEXT(BF7,"mmmm")=AR6,TEXT(BF7,"mmmm")=AK6,TEXT(BF7,"mmmm")=AD6),"",TEXT(BF7,"mmmm"))</f>
-        <v/>
+        <v>January</v>
       </c>
       <c r="BG6" s="53"/>
       <c r="BH6" s="53"/>
@@ -2531,227 +2531,227 @@
       <c r="H7" s="26"/>
       <c r="I7" s="57">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>45638</v>
+        <v>45611</v>
       </c>
       <c r="J7" s="17">
         <f ca="1">I7+1</f>
-        <v>45639</v>
+        <v>45612</v>
       </c>
       <c r="K7" s="17">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>45640</v>
+        <v>45613</v>
       </c>
       <c r="L7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45641</v>
+        <v>45614</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45642</v>
+        <v>45615</v>
       </c>
       <c r="N7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45643</v>
+        <v>45616</v>
       </c>
       <c r="O7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45644</v>
+        <v>45617</v>
       </c>
       <c r="P7" s="17">
         <f ca="1">O7+1</f>
-        <v>45645</v>
+        <v>45618</v>
       </c>
       <c r="Q7" s="17">
         <f ca="1">P7+1</f>
-        <v>45646</v>
+        <v>45619</v>
       </c>
       <c r="R7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45647</v>
+        <v>45620</v>
       </c>
       <c r="S7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45648</v>
+        <v>45621</v>
       </c>
       <c r="T7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45649</v>
+        <v>45622</v>
       </c>
       <c r="U7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45650</v>
+        <v>45623</v>
       </c>
       <c r="V7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45651</v>
+        <v>45624</v>
       </c>
       <c r="W7" s="17">
         <f ca="1">V7+1</f>
-        <v>45652</v>
+        <v>45625</v>
       </c>
       <c r="X7" s="17">
         <f ca="1">W7+1</f>
-        <v>45653</v>
+        <v>45626</v>
       </c>
       <c r="Y7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45654</v>
+        <v>45627</v>
       </c>
       <c r="Z7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45655</v>
+        <v>45628</v>
       </c>
       <c r="AA7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45656</v>
+        <v>45629</v>
       </c>
       <c r="AB7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45657</v>
+        <v>45630</v>
       </c>
       <c r="AC7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45658</v>
+        <v>45631</v>
       </c>
       <c r="AD7" s="17">
         <f ca="1">AC7+1</f>
-        <v>45659</v>
+        <v>45632</v>
       </c>
       <c r="AE7" s="17">
         <f ca="1">AD7+1</f>
-        <v>45660</v>
+        <v>45633</v>
       </c>
       <c r="AF7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45661</v>
+        <v>45634</v>
       </c>
       <c r="AG7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45662</v>
+        <v>45635</v>
       </c>
       <c r="AH7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45663</v>
+        <v>45636</v>
       </c>
       <c r="AI7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45664</v>
+        <v>45637</v>
       </c>
       <c r="AJ7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45665</v>
+        <v>45638</v>
       </c>
       <c r="AK7" s="17">
         <f ca="1">AJ7+1</f>
-        <v>45666</v>
+        <v>45639</v>
       </c>
       <c r="AL7" s="17">
         <f ca="1">AK7+1</f>
-        <v>45667</v>
+        <v>45640</v>
       </c>
       <c r="AM7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45668</v>
+        <v>45641</v>
       </c>
       <c r="AN7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45669</v>
+        <v>45642</v>
       </c>
       <c r="AO7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45670</v>
+        <v>45643</v>
       </c>
       <c r="AP7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45671</v>
+        <v>45644</v>
       </c>
       <c r="AQ7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45672</v>
+        <v>45645</v>
       </c>
       <c r="AR7" s="17">
         <f ca="1">AQ7+1</f>
-        <v>45673</v>
+        <v>45646</v>
       </c>
       <c r="AS7" s="17">
         <f ca="1">AR7+1</f>
-        <v>45674</v>
+        <v>45647</v>
       </c>
       <c r="AT7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45675</v>
+        <v>45648</v>
       </c>
       <c r="AU7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45676</v>
+        <v>45649</v>
       </c>
       <c r="AV7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45677</v>
+        <v>45650</v>
       </c>
       <c r="AW7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45678</v>
+        <v>45651</v>
       </c>
       <c r="AX7" s="52">
         <f t="shared" ca="1" si="0"/>
-        <v>45679</v>
+        <v>45652</v>
       </c>
       <c r="AY7" s="17">
         <f ca="1">AX7+1</f>
-        <v>45680</v>
+        <v>45653</v>
       </c>
       <c r="AZ7" s="17">
         <f ca="1">AY7+1</f>
-        <v>45681</v>
+        <v>45654</v>
       </c>
       <c r="BA7" s="17">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45682</v>
+        <v>45655</v>
       </c>
       <c r="BB7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45683</v>
+        <v>45656</v>
       </c>
       <c r="BC7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45684</v>
+        <v>45657</v>
       </c>
       <c r="BD7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45685</v>
+        <v>45658</v>
       </c>
       <c r="BE7" s="52">
         <f t="shared" ca="1" si="1"/>
-        <v>45686</v>
+        <v>45659</v>
       </c>
       <c r="BF7" s="17">
         <f ca="1">BE7+1</f>
-        <v>45687</v>
+        <v>45660</v>
       </c>
       <c r="BG7" s="17">
         <f ca="1">BF7+1</f>
-        <v>45688</v>
+        <v>45661</v>
       </c>
       <c r="BH7" s="17">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45689</v>
+        <v>45662</v>
       </c>
       <c r="BI7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45690</v>
+        <v>45663</v>
       </c>
       <c r="BJ7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45691</v>
+        <v>45664</v>
       </c>
       <c r="BK7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45692</v>
+        <v>45665</v>
       </c>
       <c r="BL7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>45693</v>
+        <v>45666</v>
       </c>
       <c r="BM7" s="29"/>
     </row>
@@ -2845,11 +2845,11 @@
       <c r="H9" s="43"/>
       <c r="I9" s="33" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="J9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="K9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2857,27 +2857,27 @@
       </c>
       <c r="L9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="M9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="N9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="O9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="P9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="Q9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="R9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2885,27 +2885,27 @@
       </c>
       <c r="S9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="T9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="U9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="V9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="W9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="X9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="Y9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2913,27 +2913,27 @@
       </c>
       <c r="Z9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AA9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AB9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AC9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AD9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AE9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AF9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2941,27 +2941,27 @@
       </c>
       <c r="AG9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AH9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AI9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AJ9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AK9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AL9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AM9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2969,27 +2969,27 @@
       </c>
       <c r="AN9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AO9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AP9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AQ9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AR9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AS9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AT9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2997,27 +2997,27 @@
       </c>
       <c r="AU9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AV9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AW9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AX9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AY9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AZ9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BA9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3025,27 +3025,27 @@
       </c>
       <c r="BB9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BC9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BD9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BE9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BF9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BG9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BH9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -3053,19 +3053,19 @@
       </c>
       <c r="BI9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BJ9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BK9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BL9" s="33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BM9" s="29"/>
     </row>
@@ -3165,113 +3165,113 @@
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="K11" s="70" t="str">
+      <c r="K11" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="L11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="L11" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="M11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="M11" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="N11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="N11" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="O11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="O11" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="P11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="P11" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Q11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="R11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="R11" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="S11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="S11" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="T11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="T11" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="U11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="U11" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="V11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="V11" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="W11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="W11" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="X11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="X11" s="70">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="Y11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="70">
         <f t="shared" ref="Y11:AN15" ca="1" si="5">IF(AND($C11="Goal",Y$7&gt;=$F11,Y$7&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",Y$7&gt;=$F11,Y$7&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AA11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AB11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AC11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AD11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AE11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AF11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AG11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AH11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AI11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AJ11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="AK11" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AL11" s="70" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="F13" s="74">
         <f ca="1">TODAY()+1</f>
-        <v>45639</v>
+        <v>45642</v>
       </c>
       <c r="G13" s="23">
         <v>1</v>
@@ -3658,9 +3658,9 @@
         <f t="shared" ref="I13:I15" ca="1" si="8">IF(AND($C13="Goal",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1),2,IF(AND($C13="Milestone",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1),1,""))</f>
         <v/>
       </c>
-      <c r="J13" s="70">
+      <c r="J13" s="70" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="K13" s="70" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -3778,9 +3778,9 @@
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="AN13" s="70" t="str">
+      <c r="AN13" s="70">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AO13" s="70" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="F14" s="74">
         <f ca="1">F13-3</f>
-        <v>45636</v>
+        <v>45639</v>
       </c>
       <c r="G14" s="23">
         <v>2</v>
@@ -4654,113 +4654,113 @@
         <f ca="1">IF(AND($C21="Goal",J$7&gt;=$F21,J$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",J$7&gt;=$F21,J$7&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
-      <c r="K17" s="70">
+      <c r="K17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",K$7&gt;=$F21,K$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",K$7&gt;=$F21,K$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="L17" s="70">
+        <v/>
+      </c>
+      <c r="L17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",L$7&gt;=$F21,L$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",L$7&gt;=$F21,L$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="70">
+        <v/>
+      </c>
+      <c r="M17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",M$7&gt;=$F21,M$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",M$7&gt;=$F21,M$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="N17" s="70">
+        <v/>
+      </c>
+      <c r="N17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",N$7&gt;=$F21,N$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",N$7&gt;=$F21,N$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="O17" s="70">
+        <v/>
+      </c>
+      <c r="O17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",O$7&gt;=$F21,O$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",O$7&gt;=$F21,O$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="P17" s="70">
+        <v/>
+      </c>
+      <c r="P17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",P$7&gt;=$F21,P$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",P$7&gt;=$F21,P$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="70">
+        <v/>
+      </c>
+      <c r="Q17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",Q$7&gt;=$F21,Q$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Q$7&gt;=$F21,Q$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="R17" s="70">
+        <v/>
+      </c>
+      <c r="R17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",R$7&gt;=$F21,R$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",R$7&gt;=$F21,R$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="S17" s="70">
+        <v/>
+      </c>
+      <c r="S17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",S$7&gt;=$F21,S$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",S$7&gt;=$F21,S$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="T17" s="70">
+        <v/>
+      </c>
+      <c r="T17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",T$7&gt;=$F21,T$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",T$7&gt;=$F21,T$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="U17" s="70">
+        <v/>
+      </c>
+      <c r="U17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",U$7&gt;=$F21,U$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",U$7&gt;=$F21,U$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="V17" s="70">
+        <v/>
+      </c>
+      <c r="V17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",V$7&gt;=$F21,V$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",V$7&gt;=$F21,V$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="W17" s="70">
+        <v/>
+      </c>
+      <c r="W17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",W$7&gt;=$F21,W$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",W$7&gt;=$F21,W$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="X17" s="70">
+        <v/>
+      </c>
+      <c r="X17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",X$7&gt;=$F21,X$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",X$7&gt;=$F21,X$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="Y17" s="70">
+        <v/>
+      </c>
+      <c r="Y17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",Y$7&gt;=$F21,Y$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Y$7&gt;=$F21,Y$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="Z17" s="70">
+        <v/>
+      </c>
+      <c r="Z17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",Z$7&gt;=$F21,Z$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Z$7&gt;=$F21,Z$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="AA17" s="70">
+        <v/>
+      </c>
+      <c r="AA17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",AA$7&gt;=$F21,AA$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AA$7&gt;=$F21,AA$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="AB17" s="70">
+        <v/>
+      </c>
+      <c r="AB17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",AB$7&gt;=$F21,AB$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AB$7&gt;=$F21,AB$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="AC17" s="70">
+        <v/>
+      </c>
+      <c r="AC17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",AC$7&gt;=$F21,AC$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AC$7&gt;=$F21,AC$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="AD17" s="70">
+        <v/>
+      </c>
+      <c r="AD17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",AD$7&gt;=$F21,AD$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AD$7&gt;=$F21,AD$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="AE17" s="70">
+        <v/>
+      </c>
+      <c r="AE17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",AE$7&gt;=$F21,AE$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AE$7&gt;=$F21,AE$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="AF17" s="70">
+        <v/>
+      </c>
+      <c r="AF17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",AF$7&gt;=$F21,AF$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AF$7&gt;=$F21,AF$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="AG17" s="70">
+        <v/>
+      </c>
+      <c r="AG17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",AG$7&gt;=$F21,AG$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AG$7&gt;=$F21,AG$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="AH17" s="70">
+        <v/>
+      </c>
+      <c r="AH17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",AH$7&gt;=$F21,AH$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AH$7&gt;=$F21,AH$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="AI17" s="70">
+        <v/>
+      </c>
+      <c r="AI17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",AI$7&gt;=$F21,AI$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AI$7&gt;=$F21,AI$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="70">
+        <v/>
+      </c>
+      <c r="AJ17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",AJ$7&gt;=$F21,AJ$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AJ$7&gt;=$F21,AJ$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="AK17" s="70">
+        <v/>
+      </c>
+      <c r="AK17" s="70" t="str">
         <f ca="1">IF(AND($C21="Goal",AK$7&gt;=$F21,AK$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AK$7&gt;=$F21,AK$7&lt;=$F21+$G21-1),1,""))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AL17" s="70">
         <f ca="1">IF(AND($C21="Goal",AL$7&gt;=$F21,AL$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AL$7&gt;=$F21,AL$7&lt;=$F21+$G21-1),1,""))</f>
@@ -4786,89 +4786,89 @@
         <f ca="1">IF(AND($C21="Goal",AQ$7&gt;=$F21,AQ$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AQ$7&gt;=$F21,AQ$7&lt;=$F21+$G21-1),1,""))</f>
         <v>1</v>
       </c>
-      <c r="AR17" s="70" t="str">
+      <c r="AR17" s="70">
         <f ca="1">IF(AND($C21="Goal",AR$7&gt;=$F21,AR$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AR$7&gt;=$F21,AR$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AS17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="70">
         <f ca="1">IF(AND($C21="Goal",AS$7&gt;=$F21,AS$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AS$7&gt;=$F21,AS$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AT17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="70">
         <f ca="1">IF(AND($C21="Goal",AT$7&gt;=$F21,AT$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AT$7&gt;=$F21,AT$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AU17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="70">
         <f ca="1">IF(AND($C21="Goal",AU$7&gt;=$F21,AU$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AU$7&gt;=$F21,AU$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AV17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="70">
         <f ca="1">IF(AND($C21="Goal",AV$7&gt;=$F21,AV$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AV$7&gt;=$F21,AV$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AW17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="70">
         <f ca="1">IF(AND($C21="Goal",AW$7&gt;=$F21,AW$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AW$7&gt;=$F21,AW$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AX17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="70">
         <f ca="1">IF(AND($C21="Goal",AX$7&gt;=$F21,AX$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AX$7&gt;=$F21,AX$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AY17" s="70">
         <f ca="1">IF(AND($C21="Goal",AY$7&gt;=$F21,AY$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AY$7&gt;=$F21,AY$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AZ17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="AZ17" s="70">
         <f ca="1">IF(AND($C21="Goal",AZ$7&gt;=$F21,AZ$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AZ$7&gt;=$F21,AZ$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BA17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="70">
         <f ca="1">IF(AND($C21="Goal",BA$7&gt;=$F21,BA$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BA$7&gt;=$F21,BA$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BB17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="BB17" s="70">
         <f ca="1">IF(AND($C21="Goal",BB$7&gt;=$F21,BB$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BB$7&gt;=$F21,BB$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BC17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="BC17" s="70">
         <f ca="1">IF(AND($C21="Goal",BC$7&gt;=$F21,BC$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BC$7&gt;=$F21,BC$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BD17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="70">
         <f ca="1">IF(AND($C21="Goal",BD$7&gt;=$F21,BD$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BD$7&gt;=$F21,BD$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BE17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="BE17" s="70">
         <f ca="1">IF(AND($C21="Goal",BE$7&gt;=$F21,BE$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BE$7&gt;=$F21,BE$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BF17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="BF17" s="70">
         <f ca="1">IF(AND($C21="Goal",BF$7&gt;=$F21,BF$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BF$7&gt;=$F21,BF$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BG17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="BG17" s="70">
         <f ca="1">IF(AND($C21="Goal",BG$7&gt;=$F21,BG$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BG$7&gt;=$F21,BG$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BH17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="BH17" s="70">
         <f ca="1">IF(AND($C21="Goal",BH$7&gt;=$F21,BH$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BH$7&gt;=$F21,BH$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="BI17" s="70">
         <f ca="1">IF(AND($C21="Goal",BI$7&gt;=$F21,BI$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BI$7&gt;=$F21,BI$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BJ17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="BJ17" s="70">
         <f ca="1">IF(AND($C21="Goal",BJ$7&gt;=$F21,BJ$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BJ$7&gt;=$F21,BJ$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BK17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="BK17" s="70">
         <f ca="1">IF(AND($C21="Goal",BK$7&gt;=$F21,BK$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BK$7&gt;=$F21,BK$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BL17" s="70" t="str">
+        <v>1</v>
+      </c>
+      <c r="BL17" s="70">
         <f ca="1">IF(AND($C21="Goal",BL$7&gt;=$F21,BL$7&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BL$7&gt;=$F21,BL$7&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="BM17" s="25"/>
     </row>
@@ -4902,113 +4902,113 @@
         <f ca="1">IF(AND($C22="Goal",J$7&gt;=$F22,J$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",J$7&gt;=$F22,J$7&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
-      <c r="K18" s="70">
+      <c r="K18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",K$7&gt;=$F22,K$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",K$7&gt;=$F22,K$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="L18" s="70">
+        <v/>
+      </c>
+      <c r="L18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",L$7&gt;=$F22,L$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",L$7&gt;=$F22,L$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="M18" s="70">
+        <v/>
+      </c>
+      <c r="M18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",M$7&gt;=$F22,M$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",M$7&gt;=$F22,M$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="N18" s="70">
+        <v/>
+      </c>
+      <c r="N18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",N$7&gt;=$F22,N$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",N$7&gt;=$F22,N$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="O18" s="70">
+        <v/>
+      </c>
+      <c r="O18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",O$7&gt;=$F22,O$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",O$7&gt;=$F22,O$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="P18" s="70">
+        <v/>
+      </c>
+      <c r="P18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",P$7&gt;=$F22,P$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",P$7&gt;=$F22,P$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="Q18" s="70">
+        <v/>
+      </c>
+      <c r="Q18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",Q$7&gt;=$F22,Q$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Q$7&gt;=$F22,Q$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="R18" s="70">
+        <v/>
+      </c>
+      <c r="R18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",R$7&gt;=$F22,R$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",R$7&gt;=$F22,R$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="S18" s="70">
+        <v/>
+      </c>
+      <c r="S18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",S$7&gt;=$F22,S$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",S$7&gt;=$F22,S$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="T18" s="70">
+        <v/>
+      </c>
+      <c r="T18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",T$7&gt;=$F22,T$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",T$7&gt;=$F22,T$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="U18" s="70">
+        <v/>
+      </c>
+      <c r="U18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",U$7&gt;=$F22,U$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",U$7&gt;=$F22,U$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="V18" s="70">
+        <v/>
+      </c>
+      <c r="V18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",V$7&gt;=$F22,V$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",V$7&gt;=$F22,V$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="W18" s="70">
+        <v/>
+      </c>
+      <c r="W18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",W$7&gt;=$F22,W$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",W$7&gt;=$F22,W$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="X18" s="70">
+        <v/>
+      </c>
+      <c r="X18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",X$7&gt;=$F22,X$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",X$7&gt;=$F22,X$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="Y18" s="70">
+        <v/>
+      </c>
+      <c r="Y18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",Y$7&gt;=$F22,Y$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Y$7&gt;=$F22,Y$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="Z18" s="70">
+        <v/>
+      </c>
+      <c r="Z18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",Z$7&gt;=$F22,Z$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Z$7&gt;=$F22,Z$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AA18" s="70">
+        <v/>
+      </c>
+      <c r="AA18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",AA$7&gt;=$F22,AA$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AA$7&gt;=$F22,AA$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AB18" s="70">
+        <v/>
+      </c>
+      <c r="AB18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",AB$7&gt;=$F22,AB$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AB$7&gt;=$F22,AB$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AC18" s="70">
+        <v/>
+      </c>
+      <c r="AC18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",AC$7&gt;=$F22,AC$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AC$7&gt;=$F22,AC$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AD18" s="70">
+        <v/>
+      </c>
+      <c r="AD18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",AD$7&gt;=$F22,AD$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AD$7&gt;=$F22,AD$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AE18" s="70">
+        <v/>
+      </c>
+      <c r="AE18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",AE$7&gt;=$F22,AE$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AE$7&gt;=$F22,AE$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AF18" s="70">
+        <v/>
+      </c>
+      <c r="AF18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",AF$7&gt;=$F22,AF$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AF$7&gt;=$F22,AF$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AG18" s="70">
+        <v/>
+      </c>
+      <c r="AG18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",AG$7&gt;=$F22,AG$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AG$7&gt;=$F22,AG$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AH18" s="70">
+        <v/>
+      </c>
+      <c r="AH18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",AH$7&gt;=$F22,AH$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AH$7&gt;=$F22,AH$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AI18" s="70">
+        <v/>
+      </c>
+      <c r="AI18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",AI$7&gt;=$F22,AI$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AI$7&gt;=$F22,AI$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AJ18" s="70">
+        <v/>
+      </c>
+      <c r="AJ18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",AJ$7&gt;=$F22,AJ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AJ$7&gt;=$F22,AJ$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AK18" s="70">
+        <v/>
+      </c>
+      <c r="AK18" s="70" t="str">
         <f ca="1">IF(AND($C22="Goal",AK$7&gt;=$F22,AK$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AK$7&gt;=$F22,AK$7&lt;=$F22+$G22-1),1,""))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="AL18" s="70">
         <f ca="1">IF(AND($C22="Goal",AL$7&gt;=$F22,AL$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AL$7&gt;=$F22,AL$7&lt;=$F22+$G22-1),1,""))</f>
@@ -5034,89 +5034,89 @@
         <f ca="1">IF(AND($C22="Goal",AQ$7&gt;=$F22,AQ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AQ$7&gt;=$F22,AQ$7&lt;=$F22+$G22-1),1,""))</f>
         <v>2</v>
       </c>
-      <c r="AR18" s="70" t="str">
+      <c r="AR18" s="70">
         <f ca="1">IF(AND($C22="Goal",AR$7&gt;=$F22,AR$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AR$7&gt;=$F22,AR$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AS18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="AS18" s="70">
         <f ca="1">IF(AND($C22="Goal",AS$7&gt;=$F22,AS$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AS$7&gt;=$F22,AS$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AT18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="AT18" s="70">
         <f ca="1">IF(AND($C22="Goal",AT$7&gt;=$F22,AT$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AT$7&gt;=$F22,AT$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AU18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="AU18" s="70">
         <f ca="1">IF(AND($C22="Goal",AU$7&gt;=$F22,AU$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AU$7&gt;=$F22,AU$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AV18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="AV18" s="70">
         <f ca="1">IF(AND($C22="Goal",AV$7&gt;=$F22,AV$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AV$7&gt;=$F22,AV$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AW18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="AW18" s="70">
         <f ca="1">IF(AND($C22="Goal",AW$7&gt;=$F22,AW$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AW$7&gt;=$F22,AW$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AX18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="AX18" s="70">
         <f ca="1">IF(AND($C22="Goal",AX$7&gt;=$F22,AX$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AX$7&gt;=$F22,AX$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="AY18" s="70">
         <f ca="1">IF(AND($C22="Goal",AY$7&gt;=$F22,AY$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AY$7&gt;=$F22,AY$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AZ18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="AZ18" s="70">
         <f ca="1">IF(AND($C22="Goal",AZ$7&gt;=$F22,AZ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AZ$7&gt;=$F22,AZ$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BA18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BA18" s="70">
         <f ca="1">IF(AND($C22="Goal",BA$7&gt;=$F22,BA$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BA$7&gt;=$F22,BA$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BB18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BB18" s="70">
         <f ca="1">IF(AND($C22="Goal",BB$7&gt;=$F22,BB$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BB$7&gt;=$F22,BB$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BC18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BC18" s="70">
         <f ca="1">IF(AND($C22="Goal",BC$7&gt;=$F22,BC$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BC$7&gt;=$F22,BC$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BD18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BD18" s="70">
         <f ca="1">IF(AND($C22="Goal",BD$7&gt;=$F22,BD$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BD$7&gt;=$F22,BD$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BE18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BE18" s="70">
         <f ca="1">IF(AND($C22="Goal",BE$7&gt;=$F22,BE$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BE$7&gt;=$F22,BE$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BF18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BF18" s="70">
         <f ca="1">IF(AND($C22="Goal",BF$7&gt;=$F22,BF$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BF$7&gt;=$F22,BF$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BG18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BG18" s="70">
         <f ca="1">IF(AND($C22="Goal",BG$7&gt;=$F22,BG$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BG$7&gt;=$F22,BG$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BH18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BH18" s="70">
         <f ca="1">IF(AND($C22="Goal",BH$7&gt;=$F22,BH$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BH$7&gt;=$F22,BH$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BI18" s="70">
         <f ca="1">IF(AND($C22="Goal",BI$7&gt;=$F22,BI$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BI$7&gt;=$F22,BI$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BJ18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BJ18" s="70">
         <f ca="1">IF(AND($C22="Goal",BJ$7&gt;=$F22,BJ$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BJ$7&gt;=$F22,BJ$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BK18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BK18" s="70">
         <f ca="1">IF(AND($C22="Goal",BK$7&gt;=$F22,BK$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BK$7&gt;=$F22,BK$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BL18" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BL18" s="70">
         <f ca="1">IF(AND($C22="Goal",BL$7&gt;=$F22,BL$7&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BL$7&gt;=$F22,BL$7&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="BM18" s="25"/>
     </row>
@@ -5150,113 +5150,113 @@
         <f ca="1">IF(AND($C23="Goal",J$7&gt;=$F23,J$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",J$7&gt;=$F23,J$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",K$7&gt;=$F23,K$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",K$7&gt;=$F23,K$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="L19" s="70">
+        <v/>
+      </c>
+      <c r="L19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",L$7&gt;=$F23,L$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",L$7&gt;=$F23,L$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="M19" s="70">
+        <v/>
+      </c>
+      <c r="M19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",M$7&gt;=$F23,M$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",M$7&gt;=$F23,M$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="N19" s="70">
+        <v/>
+      </c>
+      <c r="N19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",N$7&gt;=$F23,N$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",N$7&gt;=$F23,N$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="O19" s="70">
+        <v/>
+      </c>
+      <c r="O19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",O$7&gt;=$F23,O$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",O$7&gt;=$F23,O$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="P19" s="70">
+        <v/>
+      </c>
+      <c r="P19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",P$7&gt;=$F23,P$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",P$7&gt;=$F23,P$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="Q19" s="70">
+        <v/>
+      </c>
+      <c r="Q19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",Q$7&gt;=$F23,Q$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Q$7&gt;=$F23,Q$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="R19" s="70">
+        <v/>
+      </c>
+      <c r="R19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",R$7&gt;=$F23,R$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",R$7&gt;=$F23,R$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="S19" s="70">
+        <v/>
+      </c>
+      <c r="S19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",S$7&gt;=$F23,S$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",S$7&gt;=$F23,S$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="T19" s="70">
+        <v/>
+      </c>
+      <c r="T19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",T$7&gt;=$F23,T$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",T$7&gt;=$F23,T$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="U19" s="70">
+        <v/>
+      </c>
+      <c r="U19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",U$7&gt;=$F23,U$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",U$7&gt;=$F23,U$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="V19" s="70">
+        <v/>
+      </c>
+      <c r="V19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",V$7&gt;=$F23,V$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",V$7&gt;=$F23,V$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="W19" s="70">
+        <v/>
+      </c>
+      <c r="W19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",W$7&gt;=$F23,W$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",W$7&gt;=$F23,W$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="X19" s="70">
+        <v/>
+      </c>
+      <c r="X19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",X$7&gt;=$F23,X$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",X$7&gt;=$F23,X$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="Y19" s="70">
+        <v/>
+      </c>
+      <c r="Y19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",Y$7&gt;=$F23,Y$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Y$7&gt;=$F23,Y$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="Z19" s="70">
+        <v/>
+      </c>
+      <c r="Z19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",Z$7&gt;=$F23,Z$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Z$7&gt;=$F23,Z$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AA19" s="70">
+        <v/>
+      </c>
+      <c r="AA19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",AA$7&gt;=$F23,AA$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AA$7&gt;=$F23,AA$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AB19" s="70">
+        <v/>
+      </c>
+      <c r="AB19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",AB$7&gt;=$F23,AB$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AB$7&gt;=$F23,AB$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AC19" s="70">
+        <v/>
+      </c>
+      <c r="AC19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",AC$7&gt;=$F23,AC$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AC$7&gt;=$F23,AC$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AD19" s="70">
+        <v/>
+      </c>
+      <c r="AD19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",AD$7&gt;=$F23,AD$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AD$7&gt;=$F23,AD$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AE19" s="70">
+        <v/>
+      </c>
+      <c r="AE19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",AE$7&gt;=$F23,AE$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AE$7&gt;=$F23,AE$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AF19" s="70">
+        <v/>
+      </c>
+      <c r="AF19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",AF$7&gt;=$F23,AF$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AF$7&gt;=$F23,AF$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AG19" s="70">
+        <v/>
+      </c>
+      <c r="AG19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",AG$7&gt;=$F23,AG$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AG$7&gt;=$F23,AG$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AH19" s="70">
+        <v/>
+      </c>
+      <c r="AH19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",AH$7&gt;=$F23,AH$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AH$7&gt;=$F23,AH$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AI19" s="70">
+        <v/>
+      </c>
+      <c r="AI19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",AI$7&gt;=$F23,AI$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AI$7&gt;=$F23,AI$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AJ19" s="70">
+        <v/>
+      </c>
+      <c r="AJ19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",AJ$7&gt;=$F23,AJ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AJ$7&gt;=$F23,AJ$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="AK19" s="70">
+        <v/>
+      </c>
+      <c r="AK19" s="70" t="str">
         <f ca="1">IF(AND($C23="Goal",AK$7&gt;=$F23,AK$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AK$7&gt;=$F23,AK$7&lt;=$F23+$G23-1),1,""))</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="AL19" s="70">
         <f ca="1">IF(AND($C23="Goal",AL$7&gt;=$F23,AL$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AL$7&gt;=$F23,AL$7&lt;=$F23+$G23-1),1,""))</f>
@@ -5282,89 +5282,89 @@
         <f ca="1">IF(AND($C23="Goal",AQ$7&gt;=$F23,AQ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AQ$7&gt;=$F23,AQ$7&lt;=$F23+$G23-1),1,""))</f>
         <v>2</v>
       </c>
-      <c r="AR19" s="70" t="str">
+      <c r="AR19" s="70">
         <f ca="1">IF(AND($C23="Goal",AR$7&gt;=$F23,AR$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AR$7&gt;=$F23,AR$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AS19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="AS19" s="70">
         <f ca="1">IF(AND($C23="Goal",AS$7&gt;=$F23,AS$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AS$7&gt;=$F23,AS$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AT19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="AT19" s="70">
         <f ca="1">IF(AND($C23="Goal",AT$7&gt;=$F23,AT$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AT$7&gt;=$F23,AT$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AU19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="AU19" s="70">
         <f ca="1">IF(AND($C23="Goal",AU$7&gt;=$F23,AU$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AU$7&gt;=$F23,AU$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AV19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="AV19" s="70">
         <f ca="1">IF(AND($C23="Goal",AV$7&gt;=$F23,AV$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AV$7&gt;=$F23,AV$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AW19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="AW19" s="70">
         <f ca="1">IF(AND($C23="Goal",AW$7&gt;=$F23,AW$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AW$7&gt;=$F23,AW$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AX19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="AX19" s="70">
         <f ca="1">IF(AND($C23="Goal",AX$7&gt;=$F23,AX$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AX$7&gt;=$F23,AX$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AY19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="AY19" s="70">
         <f ca="1">IF(AND($C23="Goal",AY$7&gt;=$F23,AY$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AY$7&gt;=$F23,AY$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AZ19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="AZ19" s="70">
         <f ca="1">IF(AND($C23="Goal",AZ$7&gt;=$F23,AZ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AZ$7&gt;=$F23,AZ$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BA19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BA19" s="70">
         <f ca="1">IF(AND($C23="Goal",BA$7&gt;=$F23,BA$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BA$7&gt;=$F23,BA$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BB19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BB19" s="70">
         <f ca="1">IF(AND($C23="Goal",BB$7&gt;=$F23,BB$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BB$7&gt;=$F23,BB$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BC19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BC19" s="70">
         <f ca="1">IF(AND($C23="Goal",BC$7&gt;=$F23,BC$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BC$7&gt;=$F23,BC$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BD19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BD19" s="70">
         <f ca="1">IF(AND($C23="Goal",BD$7&gt;=$F23,BD$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BD$7&gt;=$F23,BD$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BE19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BE19" s="70">
         <f ca="1">IF(AND($C23="Goal",BE$7&gt;=$F23,BE$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BE$7&gt;=$F23,BE$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BF19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BF19" s="70">
         <f ca="1">IF(AND($C23="Goal",BF$7&gt;=$F23,BF$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BF$7&gt;=$F23,BF$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BG19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BG19" s="70">
         <f ca="1">IF(AND($C23="Goal",BG$7&gt;=$F23,BG$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BG$7&gt;=$F23,BG$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BH19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BH19" s="70">
         <f ca="1">IF(AND($C23="Goal",BH$7&gt;=$F23,BH$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BH$7&gt;=$F23,BH$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BI19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BI19" s="70">
         <f ca="1">IF(AND($C23="Goal",BI$7&gt;=$F23,BI$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BI$7&gt;=$F23,BI$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BJ19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BJ19" s="70">
         <f ca="1">IF(AND($C23="Goal",BJ$7&gt;=$F23,BJ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BJ$7&gt;=$F23,BJ$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BK19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BK19" s="70">
         <f ca="1">IF(AND($C23="Goal",BK$7&gt;=$F23,BK$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BK$7&gt;=$F23,BK$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BL19" s="70" t="str">
+        <v>2</v>
+      </c>
+      <c r="BL19" s="70">
         <f ca="1">IF(AND($C23="Goal",BL$7&gt;=$F23,BL$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BL$7&gt;=$F23,BL$7&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="BM19" s="25"/>
     </row>
@@ -9806,6 +9806,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
@@ -9825,25 +9834,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF181E67-B5A5-4E32-9D0A-4494603D7B36}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11AAADB5-F91F-44CE-8CB6-D8472D59D975}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C5315E-9A69-4EEB-ACCD-0F886FBF12FB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C5315E-9A69-4EEB-ACCD-0F886FBF12FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11AAADB5-F91F-44CE-8CB6-D8472D59D975}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
